--- a/Phase_2/DASHBOARD ANALYSIS OF HUMAN RIGHTS VIOLATIONS 2001 to 2010.xlsx
+++ b/Phase_2/DASHBOARD ANALYSIS OF HUMAN RIGHTS VIOLATIONS 2001 to 2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e33b39666776f46f/Desktop/Capstone Project/Phase2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F49E64E3-21F8-40FA-9454-932321BC70B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{B26223BB-CDDF-4471-BA6A-BAAA65DF0A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20052" yWindow="-108" windowWidth="17496" windowHeight="11016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="2" r:id="rId1"/>
@@ -725,12 +725,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8077,15 +8078,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8100,8 +8101,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="0"/>
-          <a:ext cx="12390120" cy="10142220"/>
+          <a:off x="60960" y="7620"/>
+          <a:ext cx="14394180" cy="10142220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8163,13 +8164,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
@@ -8201,13 +8202,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -8238,14 +8239,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -8283,7 +8284,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -29671,9 +29672,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -29711,7 +29712,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -29817,7 +29818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -29959,7 +29960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -29995,7 +29996,7 @@
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
     </row>
@@ -30003,7 +30004,7 @@
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
     </row>
@@ -30011,7 +30012,7 @@
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
     </row>
@@ -30019,7 +30020,7 @@
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>9</v>
       </c>
     </row>
@@ -30027,7 +30028,7 @@
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>10</v>
       </c>
     </row>
@@ -30035,7 +30036,7 @@
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>12</v>
       </c>
     </row>
@@ -30043,7 +30044,7 @@
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>22</v>
       </c>
     </row>
@@ -30051,7 +30052,7 @@
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>24</v>
       </c>
     </row>
@@ -30059,7 +30060,7 @@
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>36</v>
       </c>
     </row>
@@ -30067,7 +30068,7 @@
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>52</v>
       </c>
     </row>
@@ -30075,7 +30076,7 @@
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>55</v>
       </c>
     </row>
@@ -30083,7 +30084,7 @@
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>57</v>
       </c>
     </row>
@@ -30091,7 +30092,7 @@
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>60</v>
       </c>
     </row>
@@ -30099,7 +30100,7 @@
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>68</v>
       </c>
     </row>
@@ -30107,7 +30108,7 @@
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>74</v>
       </c>
     </row>
@@ -30115,7 +30116,7 @@
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>84</v>
       </c>
     </row>
@@ -30123,7 +30124,7 @@
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>87</v>
       </c>
     </row>
@@ -30131,7 +30132,7 @@
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>96</v>
       </c>
     </row>
@@ -30139,7 +30140,7 @@
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>100</v>
       </c>
     </row>
@@ -30147,7 +30148,7 @@
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>108</v>
       </c>
     </row>
@@ -30155,7 +30156,7 @@
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>111</v>
       </c>
     </row>
@@ -30163,7 +30164,7 @@
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>112</v>
       </c>
     </row>
@@ -30171,7 +30172,7 @@
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30179,7 +30180,7 @@
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30187,7 +30188,7 @@
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30195,7 +30196,7 @@
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30203,7 +30204,7 @@
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30211,7 +30212,7 @@
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30219,7 +30220,7 @@
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30227,7 +30228,7 @@
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30235,7 +30236,7 @@
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30243,7 +30244,7 @@
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>2267</v>
       </c>
     </row>
@@ -30259,7 +30260,7 @@
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30267,7 +30268,7 @@
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30275,7 +30276,7 @@
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30283,7 +30284,7 @@
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30291,7 +30292,7 @@
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30299,7 +30300,7 @@
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30307,7 +30308,7 @@
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30315,7 +30316,7 @@
       <c r="A49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30323,7 +30324,7 @@
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>120</v>
       </c>
     </row>
@@ -30331,7 +30332,7 @@
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>112</v>
       </c>
     </row>
@@ -30339,7 +30340,7 @@
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>111</v>
       </c>
     </row>
@@ -30347,7 +30348,7 @@
       <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>108</v>
       </c>
     </row>
@@ -30355,7 +30356,7 @@
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>100</v>
       </c>
     </row>
@@ -30363,7 +30364,7 @@
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>96</v>
       </c>
     </row>
@@ -30371,7 +30372,7 @@
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="3">
         <v>87</v>
       </c>
     </row>
@@ -30379,7 +30380,7 @@
       <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>84</v>
       </c>
     </row>
@@ -30387,7 +30388,7 @@
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>74</v>
       </c>
     </row>
@@ -30395,7 +30396,7 @@
       <c r="A59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>68</v>
       </c>
     </row>
@@ -30403,7 +30404,7 @@
       <c r="A60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>60</v>
       </c>
     </row>
@@ -30411,7 +30412,7 @@
       <c r="A61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="3">
         <v>57</v>
       </c>
     </row>
@@ -30419,7 +30420,7 @@
       <c r="A62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>55</v>
       </c>
     </row>
@@ -30427,7 +30428,7 @@
       <c r="A63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>52</v>
       </c>
     </row>
@@ -30435,7 +30436,7 @@
       <c r="A64" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="3">
         <v>36</v>
       </c>
     </row>
@@ -30443,7 +30444,7 @@
       <c r="A65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="3">
         <v>24</v>
       </c>
     </row>
@@ -30451,7 +30452,7 @@
       <c r="A66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>22</v>
       </c>
     </row>
@@ -30459,7 +30460,7 @@
       <c r="A67" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>12</v>
       </c>
     </row>
@@ -30467,7 +30468,7 @@
       <c r="A68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="3">
         <v>10</v>
       </c>
     </row>
@@ -30475,7 +30476,7 @@
       <c r="A69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="3">
         <v>9</v>
       </c>
     </row>
@@ -30483,7 +30484,7 @@
       <c r="A70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>6</v>
       </c>
     </row>
@@ -30491,7 +30492,7 @@
       <c r="A71" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="3">
         <v>2</v>
       </c>
     </row>
@@ -30499,7 +30500,7 @@
       <c r="A72" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>2</v>
       </c>
     </row>
@@ -30507,7 +30508,7 @@
       <c r="A73" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>2267</v>
       </c>
     </row>
@@ -30523,7 +30524,7 @@
       <c r="A80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="3">
         <v>214</v>
       </c>
     </row>
@@ -30531,7 +30532,7 @@
       <c r="A81" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="3">
         <v>194</v>
       </c>
     </row>
@@ -30539,7 +30540,7 @@
       <c r="A82" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>190</v>
       </c>
     </row>
@@ -30547,7 +30548,7 @@
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="3">
         <v>190</v>
       </c>
     </row>
@@ -30555,7 +30556,7 @@
       <c r="A84" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>190</v>
       </c>
     </row>
@@ -30563,7 +30564,7 @@
       <c r="A85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="3">
         <v>188</v>
       </c>
     </row>
@@ -30571,7 +30572,7 @@
       <c r="A86" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>186</v>
       </c>
     </row>
@@ -30579,7 +30580,7 @@
       <c r="A87" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>185</v>
       </c>
     </row>
@@ -30587,7 +30588,7 @@
       <c r="A88" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="3">
         <v>185</v>
       </c>
     </row>
@@ -30595,7 +30596,7 @@
       <c r="A89" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>182</v>
       </c>
     </row>
@@ -30603,7 +30604,7 @@
       <c r="A90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>182</v>
       </c>
     </row>
@@ -30611,7 +30612,7 @@
       <c r="A91" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="3">
         <v>181</v>
       </c>
     </row>
@@ -30619,7 +30620,7 @@
       <c r="A92" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>2267</v>
       </c>
     </row>
